--- a/Team-Data/2020-21/1-15-2020-21.xlsx
+++ b/Team-Data/2020-21/1-15-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>111.8</v>
       </c>
       <c r="BN3" t="n">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="BO3" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="BP3" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="BQ3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BR3" t="n">
         <v>4.4</v>
@@ -3073,13 +3073,13 @@
         <v>17</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="BW3" t="n">
         <v>0.728</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.514</v>
+        <v>0.513</v>
       </c>
       <c r="BY3" t="n">
         <v>0.152</v>
@@ -3094,13 +3094,13 @@
         <v>102.4</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.41</v>
+        <v>100.5</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.67</v>
+        <v>83.75</v>
       </c>
       <c r="CE3" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="CF3" t="n">
         <v>0.523</v>
@@ -3121,7 +3121,7 @@
         <v>25</v>
       </c>
       <c r="CL3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CM3" t="n">
         <v>14</v>
@@ -3139,13 +3139,13 @@
         <v>21</v>
       </c>
       <c r="CR3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS3" t="n">
         <v>22</v>
       </c>
       <c r="CT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU3" t="n">
         <v>22</v>
@@ -3157,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="CX3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CY3" t="n">
         <v>9</v>
@@ -3203,7 +3203,7 @@
         <v>0.152</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="DM3" t="n">
         <v>0.528</v>
@@ -3212,7 +3212,7 @@
         <v>0.263</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="DP3" t="n">
         <v>0.272</v>
@@ -3242,7 +3242,7 @@
         <v>22</v>
       </c>
       <c r="DY3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DZ3" t="n">
         <v>15</v>
@@ -3251,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="EB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="EC3" t="n">
         <v>22</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="HJ3" t="n">
         <v>34.1</v>
@@ -3648,16 +3648,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="JA3" t="n">
         <v>22.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="JC3" t="n">
         <v>7.5</v>
@@ -7772,7 +7772,7 @@
         <v>25</v>
       </c>
       <c r="CS8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT8" t="n">
         <v>20</v>
@@ -7884,7 +7884,7 @@
         <v>9</v>
       </c>
       <c r="EC8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="ED8" t="n">
         <v>10</v>
@@ -8196,7 +8196,7 @@
         <v>10</v>
       </c>
       <c r="HY8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="HZ8" t="n">
         <v>12</v>
@@ -8695,13 +8695,13 @@
         <v>2</v>
       </c>
       <c r="CR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS9" t="n">
         <v>16</v>
       </c>
       <c r="CT9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU9" t="n">
         <v>18</v>
@@ -8798,7 +8798,7 @@
         <v>18</v>
       </c>
       <c r="DY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DZ9" t="n">
         <v>26</v>
@@ -9386,16 +9386,16 @@
         <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9467,7 +9467,7 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -9528,19 +9528,19 @@
         <v>543</v>
       </c>
       <c r="BM10" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="BN10" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BO10" t="n">
         <v>111.1</v>
       </c>
       <c r="BP10" t="n">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.8</v>
@@ -9549,22 +9549,22 @@
         <v>0.617</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="BU10" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="BV10" t="n">
         <v>0.277</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.485</v>
@@ -9576,13 +9576,13 @@
         <v>101.4</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.84</v>
+        <v>82.91</v>
       </c>
       <c r="CE10" t="n">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="CF10" t="n">
         <v>0.452</v>
@@ -9624,13 +9624,13 @@
         <v>13</v>
       </c>
       <c r="CS10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="CT10" t="n">
         <v>24</v>
       </c>
       <c r="CU10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV10" t="n">
         <v>29</v>
@@ -9639,7 +9639,7 @@
         <v>28</v>
       </c>
       <c r="CX10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CY10" t="n">
         <v>29</v>
@@ -9682,7 +9682,7 @@
         <v>0.247</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="DL10" t="n">
         <v>0.277</v>
@@ -9697,7 +9697,7 @@
         <v>0.165</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="DQ10" t="n">
         <v>19</v>
@@ -9721,7 +9721,7 @@
         <v>15</v>
       </c>
       <c r="DX10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DY10" t="n">
         <v>13</v>
@@ -9736,7 +9736,7 @@
         <v>3</v>
       </c>
       <c r="EC10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.4</v>
       </c>
       <c r="HI10" t="n">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>27</v>
       </c>
       <c r="HY10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="HZ10" t="n">
         <v>11</v>
@@ -10393,7 +10393,7 @@
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -12408,7 +12408,7 @@
         <v>17</v>
       </c>
       <c r="CU13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV13" t="n">
         <v>10</v>
@@ -12499,7 +12499,7 @@
         <v>25</v>
       </c>
       <c r="DX13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DY13" t="n">
         <v>21</v>
@@ -14269,7 +14269,7 @@
         <v>7</v>
       </c>
       <c r="CX15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CY15" t="n">
         <v>1</v>
@@ -17032,7 +17032,7 @@
         <v>6</v>
       </c>
       <c r="CS18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CT18" t="n">
         <v>5</v>
@@ -17144,7 +17144,7 @@
         <v>17</v>
       </c>
       <c r="EC18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="ED18" t="n">
         <v>10</v>
@@ -17456,7 +17456,7 @@
         <v>6</v>
       </c>
       <c r="HY18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="HZ18" t="n">
         <v>5</v>
@@ -21668,7 +21668,7 @@
         <v>11</v>
       </c>
       <c r="CU23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV23" t="n">
         <v>30</v>
@@ -21759,7 +21759,7 @@
         <v>24</v>
       </c>
       <c r="DX23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DY23" t="n">
         <v>9</v>
@@ -22697,7 +22697,7 @@
         <v>16</v>
       </c>
       <c r="EB24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="EC24" t="n">
         <v>17</v>
@@ -24440,7 +24440,7 @@
         <v>20</v>
       </c>
       <c r="CS26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT26" t="n">
         <v>25</v>
@@ -24552,7 +24552,7 @@
         <v>19</v>
       </c>
       <c r="EC26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="ED26" t="n">
         <v>10</v>
@@ -24864,7 +24864,7 @@
         <v>16</v>
       </c>
       <c r="HY26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="HZ26" t="n">
         <v>10</v>
@@ -28159,7 +28159,7 @@
         <v>16</v>
       </c>
       <c r="CX30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CY30" t="n">
         <v>8</v>
@@ -29049,7 +29049,7 @@
         <v>25</v>
       </c>
       <c r="CL31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM31" t="n">
         <v>27</v>

--- a/Team-Data/2020-21/1-15-2020-21.xlsx
+++ b/Team-Data/2020-21/1-15-2020-21.xlsx
@@ -733,115 +733,115 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J2" t="n">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L2" t="n">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>0.347</v>
+        <v>0.359</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="P2" t="n">
-        <v>25.3</v>
+        <v>26.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.806</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="T2" t="n">
-        <v>48.9</v>
+        <v>49.7</v>
       </c>
       <c r="U2" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
         <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
         <v>5.6</v>
       </c>
       <c r="Z2" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA2" t="n">
         <v>20.6</v>
       </c>
-      <c r="AA2" t="n">
-        <v>20.4</v>
-      </c>
       <c r="AB2" t="n">
-        <v>111.9</v>
+        <v>113.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -850,13 +850,13 @@
         <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -868,25 +868,25 @@
         <v>11</v>
       </c>
       <c r="AW2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX2" t="n">
         <v>27</v>
       </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -915,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="J3" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.483</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="M3" t="n">
-        <v>32.1</v>
+        <v>31.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="S3" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="T3" t="n">
         <v>45.2</v>
       </c>
       <c r="U3" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="X3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -1005,22 +1005,22 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>5</v>
@@ -1029,25 +1029,25 @@
         <v>22</v>
       </c>
       <c r="AP3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>21</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>14</v>
-      </c>
       <c r="AR3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT3" t="n">
         <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -1056,19 +1056,19 @@
         <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -1175,25 +1175,25 @@
         <v>5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>4</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
@@ -1232,16 +1232,16 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -1357,25 +1357,25 @@
         <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN5" t="n">
         <v>16</v>
@@ -1396,43 +1396,43 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
         <v>23</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
       </c>
       <c r="AY5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA5" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -1461,121 +1461,121 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333</v>
+        <v>0.364</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="J6" t="n">
-        <v>88.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="M6" t="n">
-        <v>36.3</v>
+        <v>35.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R6" t="n">
         <v>8.4</v>
       </c>
       <c r="S6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="V6" t="n">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
         <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.8</v>
+        <v>116.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>5</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1584,10 +1584,10 @@
         <v>25</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AU6" t="n">
         <v>15</v>
@@ -1596,22 +1596,22 @@
         <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ6" t="n">
         <v>27</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -1643,109 +1643,109 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.462</v>
+        <v>0.417</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J7" t="n">
-        <v>86.5</v>
+        <v>87.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M7" t="n">
         <v>27.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="P7" t="n">
-        <v>20.1</v>
+        <v>18.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.663</v>
+        <v>0.652</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U7" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V7" t="n">
         <v>16.4</v>
       </c>
       <c r="W7" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="X7" t="n">
         <v>4.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH7" t="n">
         <v>2</v>
       </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3</v>
-      </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
@@ -1754,49 +1754,49 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP7" t="n">
         <v>28</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>28</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB7" t="n">
         <v>30</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -1825,103 +1825,103 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.545</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.1</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L8" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="M8" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O8" t="n">
-        <v>17.5</v>
+        <v>18.6</v>
       </c>
       <c r="P8" t="n">
-        <v>23.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.738</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="S8" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
         <v>109.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="n">
         <v>9</v>
       </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
@@ -1933,28 +1933,28 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
@@ -1963,22 +1963,22 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>21</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -2085,16 +2085,16 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
@@ -2103,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL9" t="n">
         <v>17</v>
@@ -2115,22 +2115,22 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR9" t="n">
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT9" t="n">
         <v>28</v>
@@ -2151,16 +2151,16 @@
         <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
       </c>
       <c r="BB9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2267,7 +2267,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>30</v>
@@ -2294,31 +2294,31 @@
         <v>16</v>
       </c>
       <c r="AM10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
         <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2336,13 +2336,13 @@
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>23</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -2449,22 +2449,22 @@
         <v>-4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
@@ -2473,19 +2473,19 @@
         <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ11" t="n">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>27</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>18</v>
@@ -2503,22 +2503,22 @@
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB11" t="n">
         <v>14</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -2631,25 +2631,25 @@
         <v>-1.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
         <v>14</v>
@@ -2658,13 +2658,13 @@
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
         <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
         <v>7</v>
@@ -2676,19 +2676,19 @@
         <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT12" t="n">
         <v>26</v>
       </c>
       <c r="AU12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>2</v>
@@ -2706,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -2813,16 +2813,16 @@
         <v>6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
         <v>11</v>
@@ -2831,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>5</v>
@@ -2843,25 +2843,25 @@
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
         <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
@@ -2879,13 +2879,13 @@
         <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC13" t="n">
         <v>3</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -2917,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>84.5</v>
+        <v>84.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.481</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="M14" t="n">
         <v>34.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="O14" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P14" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.839</v>
+        <v>0.842</v>
       </c>
       <c r="R14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="S14" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="U14" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="V14" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>113.8</v>
+        <v>111.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>5</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>22</v>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
         <v>30</v>
@@ -3052,25 +3052,25 @@
         <v>9</v>
       </c>
       <c r="AW14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -3099,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.786</v>
+        <v>0.769</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="J15" t="n">
-        <v>88.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.488</v>
+        <v>0.493</v>
       </c>
       <c r="L15" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="M15" t="n">
-        <v>32.1</v>
+        <v>31.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.396</v>
       </c>
       <c r="O15" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P15" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>38.1</v>
+        <v>38.7</v>
       </c>
       <c r="T15" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
       <c r="U15" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X15" t="n">
         <v>6.6</v>
@@ -3165,16 +3165,16 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
         <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>115.4</v>
+        <v>115.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>4</v>
@@ -3198,28 +3198,28 @@
         <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
       </c>
       <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AP15" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
         <v>2</v>
@@ -3228,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
@@ -3243,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
@@ -3252,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -3359,19 +3359,19 @@
         <v>-1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3383,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
         <v>27</v>
@@ -3392,7 +3392,7 @@
         <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
         <v>30</v>
@@ -3404,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>9</v>
@@ -3413,28 +3413,28 @@
         <v>5</v>
       </c>
       <c r="AV16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -3541,40 +3541,40 @@
         <v>-2.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -3589,7 +3589,7 @@
         <v>9</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3598,10 +3598,10 @@
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
         <v>3</v>
@@ -3610,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB17" t="n">
         <v>17</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -3645,97 +3645,97 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.489</v>
+        <v>0.493</v>
       </c>
       <c r="L18" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="M18" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.411</v>
+        <v>0.413</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.726</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="T18" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="U18" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="V18" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="X18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>5.1</v>
-      </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>120.2</v>
+        <v>120.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18" t="n">
         <v>3</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="AL18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM18" t="n">
         <v>4</v>
@@ -3756,49 +3756,49 @@
         <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>14</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -3905,25 +3905,25 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3938,10 +3938,10 @@
         <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
@@ -3950,22 +3950,22 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
         <v>14</v>
       </c>
       <c r="AW19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX19" t="n">
         <v>16</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>14</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -4009,121 +4009,121 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J20" t="n">
         <v>85.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M20" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>23.9</v>
+        <v>25.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.707</v>
+        <v>0.714</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
         <v>37</v>
       </c>
       <c r="T20" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="U20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V20" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>105.9</v>
+        <v>107</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
@@ -4138,31 +4138,31 @@
         <v>4</v>
       </c>
       <c r="AU20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -4191,160 +4191,160 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.385</v>
+        <v>0.417</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M21" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="N21" t="n">
         <v>0.351</v>
       </c>
       <c r="O21" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P21" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.747</v>
+        <v>0.739</v>
       </c>
       <c r="R21" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="T21" t="n">
-        <v>45.5</v>
+        <v>46.1</v>
       </c>
       <c r="U21" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V21" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X21" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z21" t="n">
         <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>30</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
       </c>
       <c r="AP21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT21" t="n">
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>25</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -4373,121 +4373,121 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>38.2</v>
       </c>
       <c r="J22" t="n">
-        <v>87</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L22" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="M22" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="N22" t="n">
         <v>0.33</v>
       </c>
       <c r="O22" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P22" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.731</v>
       </c>
       <c r="R22" t="n">
         <v>7.2</v>
       </c>
       <c r="S22" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="T22" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U22" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>104.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.1</v>
+        <v>-6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN22" t="n">
         <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
@@ -4499,35 +4499,35 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC22" t="n">
         <v>27</v>
       </c>
-      <c r="AV22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>26</v>
-      </c>
       <c r="BD22" t="n">
         <v>10</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -4555,100 +4555,100 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J23" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.433</v>
+        <v>0.436</v>
       </c>
       <c r="L23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="M23" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.319</v>
+        <v>0.325</v>
       </c>
       <c r="O23" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.796</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R23" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="S23" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="T23" t="n">
         <v>46.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
         <v>13.5</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>105.3</v>
+        <v>106.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11</v>
       </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
       <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
         <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>5</v>
@@ -4657,13 +4657,13 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>16</v>
@@ -4672,16 +4672,16 @@
         <v>19</v>
       </c>
       <c r="AQ23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
@@ -4690,13 +4690,13 @@
         <v>5</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
         <v>1</v>
@@ -4705,10 +4705,10 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>8</v>
@@ -4836,10 +4836,10 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>18</v>
@@ -4848,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4863,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4878,19 +4878,19 @@
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
         <v>16</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -4997,25 +4997,25 @@
         <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
         <v>3</v>
       </c>
       <c r="AG25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH25" t="n">
         <v>8</v>
       </c>
-      <c r="AH25" t="n">
-        <v>6</v>
-      </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -5033,7 +5033,7 @@
         <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
@@ -5054,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX25" t="n">
         <v>22</v>
@@ -5069,10 +5069,10 @@
         <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -5179,22 +5179,22 @@
         <v>0.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -5203,34 +5203,34 @@
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT26" t="n">
         <v>21</v>
       </c>
-      <c r="AS26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>22</v>
-      </c>
       <c r="AU26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
@@ -5239,13 +5239,13 @@
         <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
         <v>15</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -5283,118 +5283,118 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.385</v>
+        <v>0.417</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="J27" t="n">
-        <v>87.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.471</v>
       </c>
       <c r="L27" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="M27" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>32.9</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.1</v>
+        <v>44</v>
       </c>
       <c r="U27" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="V27" t="n">
         <v>14.2</v>
       </c>
       <c r="W27" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>113.6</v>
+        <v>114.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.6</v>
+        <v>-7.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP27" t="n">
         <v>1</v>
@@ -5403,37 +5403,37 @@
         <v>27</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV27" t="n">
         <v>10</v>
       </c>
       <c r="AW27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -5543,22 +5543,22 @@
         <v>-1.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>1</v>
@@ -5567,19 +5567,19 @@
         <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
@@ -5588,13 +5588,13 @@
         <v>18</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5612,13 +5612,13 @@
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
         <v>-1</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
@@ -5749,7 +5749,7 @@
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="n">
         <v>1</v>
@@ -5758,10 +5758,10 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
@@ -5770,10 +5770,10 @@
         <v>16</v>
       </c>
       <c r="AS29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5794,13 +5794,13 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -5829,118 +5829,118 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="J30" t="n">
-        <v>89</v>
+        <v>88.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L30" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="M30" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.396</v>
+        <v>0.391</v>
       </c>
       <c r="O30" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="P30" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="T30" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z30" t="n">
         <v>17.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM30" t="n">
         <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
@@ -5949,7 +5949,7 @@
         <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
         <v>1</v>
@@ -5958,31 +5958,31 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX30" t="n">
         <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -6089,19 +6089,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
         <v>2</v>
@@ -6110,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6122,16 +6122,16 @@
         <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP31" t="n">
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>22</v>
@@ -6143,16 +6143,16 @@
         <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>30</v>
@@ -6161,10 +6161,10 @@
         <v>3</v>
       </c>
       <c r="BB31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-15-2020-21</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
